--- a/hw2/metadata.xlsx
+++ b/hw2/metadata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\DAA_spring\DAA-\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2217B16-DA3F-4C79-9B92-D8D7D2D02373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169196FF-D3A7-4F84-909D-C88F0091D41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{F63C9D08-069C-4444-A00B-08154F7C4D5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{F63C9D08-069C-4444-A00B-08154F7C4D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +165,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +258,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -262,6 +315,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122DC713-7CCF-45AE-8662-2B20A2D29D8C}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +738,7 @@
         <v>8.1198000000000006E-2</v>
       </c>
       <c r="L3" s="5">
-        <f>SUM(J3:K3)</f>
+        <f t="shared" ref="L3:L11" si="0">SUM(J3:K3)</f>
         <v>8.6143600000000001E-2</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -726,7 +788,7 @@
         <v>0.18344699999999997</v>
       </c>
       <c r="L4" s="5">
-        <f>SUM(J4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0.19396079999999996</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -760,7 +822,7 @@
         <v>53.004083600000001</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E11" si="0">SUM(C5:D5)</f>
+        <f t="shared" ref="E5:E11" si="1">SUM(C5:D5)</f>
         <v>53.022260700000004</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -776,7 +838,7 @@
         <v>0.19120240000000002</v>
       </c>
       <c r="L5" s="5">
-        <f>SUM(J5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.20359370000000002</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -792,7 +854,7 @@
         <v>0.37162210000000007</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" ref="R5:R11" si="1">SUM(P5:Q5)</f>
+        <f t="shared" ref="R5:R11" si="2">SUM(P5:Q5)</f>
         <v>0.38968490000000006</v>
       </c>
     </row>
@@ -810,7 +872,7 @@
         <v>112.1042267</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.1277407</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -826,7 +888,7 @@
         <v>0.75502550000000002</v>
       </c>
       <c r="L6" s="5">
-        <f>SUM(J6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.79419240000000002</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -842,7 +904,7 @@
         <v>0.4214835999999999</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4460694999999999</v>
       </c>
     </row>
@@ -860,7 +922,7 @@
         <v>801.91698250000002</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>801.98464660000002</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -876,7 +938,7 @@
         <v>1.5485905</v>
       </c>
       <c r="L7" s="5">
-        <f>SUM(J7:K7)</f>
+        <f t="shared" si="0"/>
         <v>1.6411149999999999</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -892,7 +954,7 @@
         <v>1.1107457000000003</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1713099000000002</v>
       </c>
     </row>
@@ -910,7 +972,7 @@
         <v>1165.6197979999999</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1165.6610913</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -926,7 +988,7 @@
         <v>7.6132445000000004</v>
       </c>
       <c r="L8" s="5">
-        <f>SUM(J8:K8)</f>
+        <f t="shared" si="0"/>
         <v>8.0360492000000008</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -942,7 +1004,7 @@
         <v>6.6365276000000009</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9532931000000007</v>
       </c>
     </row>
@@ -960,7 +1022,7 @@
         <v>1945.3085859999992</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1945.3398593999991</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -976,7 +1038,7 @@
         <v>3.2229882999999999</v>
       </c>
       <c r="L9" s="5">
-        <f>SUM(J9:K9)</f>
+        <f t="shared" si="0"/>
         <v>3.2469087000000001</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -992,7 +1054,7 @@
         <v>0.70570940000000004</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74405399999999999</v>
       </c>
     </row>
@@ -1010,7 +1072,7 @@
         <v>121.8755914</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.89652380000001</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1026,7 +1088,7 @@
         <v>0.27504420000000002</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM(J10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0.30482790000000004</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1042,7 +1104,7 @@
         <v>0.76281189999999999</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81113089999999999</v>
       </c>
     </row>
@@ -1060,7 +1122,7 @@
         <v>42.416028199999992</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.442477799999992</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1076,7 +1138,7 @@
         <v>4.6231184000000001</v>
       </c>
       <c r="L11" s="5">
-        <f>SUM(J11:K11)</f>
+        <f t="shared" si="0"/>
         <v>4.6598727000000002</v>
       </c>
       <c r="N11" s="3" t="s">
@@ -1092,7 +1154,7 @@
         <v>0.60695129999999997</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64680579999999999</v>
       </c>
     </row>
@@ -1171,7 +1233,7 @@
         <v>53.004083600000001</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:J25" si="2">SUM(H19:I19)</f>
+        <f t="shared" ref="J19:J25" si="3">SUM(H19:I19)</f>
         <v>53.022260700000004</v>
       </c>
     </row>
@@ -1189,7 +1251,7 @@
         <v>112.1042267</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112.1277407</v>
       </c>
     </row>
@@ -1207,7 +1269,7 @@
         <v>801.91698250000002</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>801.98464660000002</v>
       </c>
     </row>
@@ -1225,7 +1287,7 @@
         <v>1165.6197979999999</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1165.6610913</v>
       </c>
     </row>
@@ -1243,7 +1305,7 @@
         <v>1945.3085859999992</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1945.3398593999991</v>
       </c>
     </row>
@@ -1261,7 +1323,7 @@
         <v>121.8755914</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121.89652380000001</v>
       </c>
     </row>
@@ -1279,7 +1341,7 @@
         <v>42.416028199999992</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.442477799999992</v>
       </c>
     </row>
@@ -1290,6 +1352,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A542A-58E6-40E2-84AD-212B16993E3B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9">
+        <v>4.7472599999999997E-2</v>
+      </c>
+      <c r="C1" s="9">
+        <v>8.6143600000000001E-2</v>
+      </c>
+      <c r="D1" s="9">
+        <v>1.5362928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>3.698970004</v>
+      </c>
+      <c r="B2" s="10">
+        <v>9.3534800000000001E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.19396079999999999</v>
+      </c>
+      <c r="D2" s="10">
+        <v>6.4188675000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.3896849</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.20359369999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>53.022260699999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>4.3010299959999996</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.44606950000000001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.79419240000000002</v>
+      </c>
+      <c r="D4" s="10">
+        <v>112.1277407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4.6989700040000004</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.1713099</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.6411150000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>801.98464660000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5.3010299959999996</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6.9532930999999998</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.0360492000000008</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1165.6610909999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.74405399999999999</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3.2469087000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1945.3398589999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.81113089999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.30482789999999998</v>
+      </c>
+      <c r="D8" s="10">
+        <v>121.8965238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.64680579999999999</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4.6598727000000002</v>
+      </c>
+      <c r="D9" s="11">
+        <v>42.442477799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C1E4D4-D756-4154-9CE2-4156A9380A33}">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/hw2/metadata.xlsx
+++ b/hw2/metadata.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\DAA_spring\DAA-\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169196FF-D3A7-4F84-909D-C88F0091D41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2217B16-DA3F-4C79-9B92-D8D7D2D02373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{F63C9D08-069C-4444-A00B-08154F7C4D5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{F63C9D08-069C-4444-A00B-08154F7C4D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,40 +164,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,39 +233,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -315,15 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122DC713-7CCF-45AE-8662-2B20A2D29D8C}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +676,7 @@
         <v>8.1198000000000006E-2</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L11" si="0">SUM(J3:K3)</f>
+        <f>SUM(J3:K3)</f>
         <v>8.6143600000000001E-2</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -788,7 +726,7 @@
         <v>0.18344699999999997</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J4:K4)</f>
         <v>0.19396079999999996</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -822,7 +760,7 @@
         <v>53.004083600000001</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E11" si="1">SUM(C5:D5)</f>
+        <f t="shared" ref="E5:E11" si="0">SUM(C5:D5)</f>
         <v>53.022260700000004</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -838,7 +776,7 @@
         <v>0.19120240000000002</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:K5)</f>
         <v>0.20359370000000002</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -854,7 +792,7 @@
         <v>0.37162210000000007</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" ref="R5:R11" si="2">SUM(P5:Q5)</f>
+        <f t="shared" ref="R5:R11" si="1">SUM(P5:Q5)</f>
         <v>0.38968490000000006</v>
       </c>
     </row>
@@ -872,7 +810,7 @@
         <v>112.1042267</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>112.1277407</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -888,7 +826,7 @@
         <v>0.75502550000000002</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J6:K6)</f>
         <v>0.79419240000000002</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -904,7 +842,7 @@
         <v>0.4214835999999999</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4460694999999999</v>
       </c>
     </row>
@@ -922,7 +860,7 @@
         <v>801.91698250000002</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>801.98464660000002</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -938,7 +876,7 @@
         <v>1.5485905</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J7:K7)</f>
         <v>1.6411149999999999</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -954,7 +892,7 @@
         <v>1.1107457000000003</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1713099000000002</v>
       </c>
     </row>
@@ -972,7 +910,7 @@
         <v>1165.6197979999999</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1165.6610913</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -988,7 +926,7 @@
         <v>7.6132445000000004</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J8:K8)</f>
         <v>8.0360492000000008</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1004,7 +942,7 @@
         <v>6.6365276000000009</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.9532931000000007</v>
       </c>
     </row>
@@ -1022,7 +960,7 @@
         <v>1945.3085859999992</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1945.3398593999991</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1038,7 +976,7 @@
         <v>3.2229882999999999</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J9:K9)</f>
         <v>3.2469087000000001</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1054,7 +992,7 @@
         <v>0.70570940000000004</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.74405399999999999</v>
       </c>
     </row>
@@ -1072,7 +1010,7 @@
         <v>121.8755914</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121.89652380000001</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1088,7 +1026,7 @@
         <v>0.27504420000000002</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:K10)</f>
         <v>0.30482790000000004</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1104,7 +1042,7 @@
         <v>0.76281189999999999</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81113089999999999</v>
       </c>
     </row>
@@ -1122,7 +1060,7 @@
         <v>42.416028199999992</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42.442477799999992</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1138,7 +1076,7 @@
         <v>4.6231184000000001</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J11:K11)</f>
         <v>4.6598727000000002</v>
       </c>
       <c r="N11" s="3" t="s">
@@ -1154,7 +1092,7 @@
         <v>0.60695129999999997</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.64680579999999999</v>
       </c>
     </row>
@@ -1233,7 +1171,7 @@
         <v>53.004083600000001</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:J25" si="3">SUM(H19:I19)</f>
+        <f t="shared" ref="J19:J25" si="2">SUM(H19:I19)</f>
         <v>53.022260700000004</v>
       </c>
     </row>
@@ -1251,7 +1189,7 @@
         <v>112.1042267</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>112.1277407</v>
       </c>
     </row>
@@ -1269,7 +1207,7 @@
         <v>801.91698250000002</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>801.98464660000002</v>
       </c>
     </row>
@@ -1287,7 +1225,7 @@
         <v>1165.6197979999999</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1165.6610913</v>
       </c>
     </row>
@@ -1305,7 +1243,7 @@
         <v>1945.3085859999992</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1945.3398593999991</v>
       </c>
     </row>
@@ -1323,7 +1261,7 @@
         <v>121.8755914</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>121.89652380000001</v>
       </c>
     </row>
@@ -1341,7 +1279,7 @@
         <v>42.416028199999992</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.442477799999992</v>
       </c>
     </row>
@@ -1352,148 +1290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A542A-58E6-40E2-84AD-212B16993E3B}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9">
-        <v>4.7472599999999997E-2</v>
-      </c>
-      <c r="C1" s="9">
-        <v>8.6143600000000001E-2</v>
-      </c>
-      <c r="D1" s="9">
-        <v>1.5362928</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>3.698970004</v>
-      </c>
-      <c r="B2" s="10">
-        <v>9.3534800000000001E-2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.19396079999999999</v>
-      </c>
-      <c r="D2" s="10">
-        <v>6.4188675000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.3896849</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.20359369999999999</v>
-      </c>
-      <c r="D3" s="11">
-        <v>53.022260699999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>4.3010299959999996</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.44606950000000001</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.79419240000000002</v>
-      </c>
-      <c r="D4" s="10">
-        <v>112.1277407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4.6989700040000004</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1.1713099</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1.6411150000000001</v>
-      </c>
-      <c r="D5" s="11">
-        <v>801.98464660000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5.3010299959999996</v>
-      </c>
-      <c r="B6" s="10">
-        <v>6.9532930999999998</v>
-      </c>
-      <c r="C6" s="10">
-        <v>8.0360492000000008</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1165.6610909999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0.74405399999999999</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3.2469087000000001</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1945.3398589999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.81113089999999999</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.30482789999999998</v>
-      </c>
-      <c r="D8" s="10">
-        <v>121.8965238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0.64680579999999999</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4.6598727000000002</v>
-      </c>
-      <c r="D9" s="11">
-        <v>42.442477799999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C1E4D4-D756-4154-9CE2-4156A9380A33}">
   <dimension ref="A1:B8"/>
   <sheetViews>
